--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43458,6 +43458,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43493,6 +43493,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>474000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43528,6 +43528,41 @@
         <v>474000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>125000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43563,6 +43563,41 @@
         <v>125000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>12409800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43598,6 +43598,41 @@
         <v>12409800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>12632300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43633,6 +43633,41 @@
         <v>12632300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>7223500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43668,6 +43668,41 @@
         <v>7223500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>792000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43703,6 +43703,41 @@
         <v>792000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>5233100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43738,6 +43738,41 @@
         <v>5233100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1543700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43773,6 +43773,41 @@
         <v>1543700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1799700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43808,6 +43808,41 @@
         <v>1799700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>617100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43843,6 +43843,41 @@
         <v>617100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>817900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43878,6 +43878,76 @@
         <v>817900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>372800</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>154300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43948,6 +43948,76 @@
         <v>154300</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>309400</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>417800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44018,6 +44018,41 @@
         <v>417800</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>47000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44053,6 +44053,41 @@
         <v>47000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>133300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44088,6 +44088,41 @@
         <v>133300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>425000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44123,6 +44123,41 @@
         <v>425000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1376000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44158,6 +44158,76 @@
         <v>1376000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>989000</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>150000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44228,6 +44228,41 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>963200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44263,6 +44263,41 @@
         <v>963200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>520300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2326"/>
+  <dimension ref="A1:I2327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82308,6 +82308,41 @@
         <v>520300</v>
       </c>
     </row>
+    <row r="2327">
+      <c r="A2327" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2327" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2327" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2327" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2327" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2327" t="n">
+        <v>2309500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2327"/>
+  <dimension ref="A1:I2328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82343,6 +82343,41 @@
         <v>2309500</v>
       </c>
     </row>
+    <row r="2328">
+      <c r="A2328" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2328" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2328" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2328" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2328" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2328" t="n">
+        <v>658600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2328"/>
+  <dimension ref="A1:I2329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82378,6 +82378,41 @@
         <v>658600</v>
       </c>
     </row>
+    <row r="2329">
+      <c r="A2329" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2329" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2329" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2329" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2329" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2329" t="n">
+        <v>1213200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2329"/>
+  <dimension ref="A1:I2330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82413,6 +82413,41 @@
         <v>1213200</v>
       </c>
     </row>
+    <row r="2330">
+      <c r="A2330" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2330" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2330" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2330" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2330" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2330" t="n">
+        <v>755300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2330"/>
+  <dimension ref="A1:I2331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82448,6 +82448,41 @@
         <v>755300</v>
       </c>
     </row>
+    <row r="2331">
+      <c r="A2331" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2331" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2331" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2331" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2331" t="n">
+        <v>580400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2331"/>
+  <dimension ref="A1:I2332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82483,6 +82483,41 @@
         <v>580400</v>
       </c>
     </row>
+    <row r="2332">
+      <c r="A2332" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2332" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2332" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2332" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2332" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2332" t="n">
+        <v>619800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2332"/>
+  <dimension ref="A1:I2333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82518,6 +82518,41 @@
         <v>619800</v>
       </c>
     </row>
+    <row r="2333">
+      <c r="A2333" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2333" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2333" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2333" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2333" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2333" t="n">
+        <v>998400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2333"/>
+  <dimension ref="A1:I2334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82553,6 +82553,41 @@
         <v>998400</v>
       </c>
     </row>
+    <row r="2334">
+      <c r="A2334" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2334" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2334" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2334" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2334" t="n">
+        <v>190000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2334"/>
+  <dimension ref="A1:I2335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82588,6 +82588,41 @@
         <v>190000</v>
       </c>
     </row>
+    <row r="2335">
+      <c r="A2335" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2335" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2335" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2335" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2335" t="n">
+        <v>125000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2335"/>
+  <dimension ref="A1:I2336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82623,6 +82623,41 @@
         <v>125000</v>
       </c>
     </row>
+    <row r="2336">
+      <c r="A2336" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2336" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2336" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2336" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2336" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2336"/>
+  <dimension ref="A1:I2337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82658,6 +82658,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="2337">
+      <c r="A2337" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2337" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2337" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2337" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2337" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2337" t="n">
+        <v>1094000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2337"/>
+  <dimension ref="A1:I2338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82693,6 +82693,41 @@
         <v>1094000</v>
       </c>
     </row>
+    <row r="2338">
+      <c r="A2338" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2338" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2338" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2338" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2338" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2338" t="n">
+        <v>1273900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2338"/>
+  <dimension ref="A1:I2339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82728,6 +82728,41 @@
         <v>1273900</v>
       </c>
     </row>
+    <row r="2339">
+      <c r="A2339" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2339" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2339" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2339" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2339" t="n">
+        <v>2067200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2339"/>
+  <dimension ref="A1:I2340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82763,6 +82763,41 @@
         <v>2067200</v>
       </c>
     </row>
+    <row r="2340">
+      <c r="A2340" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2340" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2340" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2340" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2340" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2340" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2340" t="n">
+        <v>760900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2340"/>
+  <dimension ref="A1:I2341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82798,6 +82798,41 @@
         <v>760900</v>
       </c>
     </row>
+    <row r="2341">
+      <c r="A2341" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2341" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2341" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2341" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2341" t="n">
+        <v>1189000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2341"/>
+  <dimension ref="A1:I2342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82833,6 +82833,41 @@
         <v>1189000</v>
       </c>
     </row>
+    <row r="2342">
+      <c r="A2342" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2342" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2342" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2342" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2342" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2342" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2342" t="n">
+        <v>269000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2342"/>
+  <dimension ref="A1:I2343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82868,6 +82868,41 @@
         <v>269000</v>
       </c>
     </row>
+    <row r="2343">
+      <c r="A2343" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2343" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2343" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2343" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2343" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2343" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2343" t="n">
+        <v>1791200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2343"/>
+  <dimension ref="A1:I2344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82903,6 +82903,41 @@
         <v>1791200</v>
       </c>
     </row>
+    <row r="2344">
+      <c r="A2344" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2344" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2344" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2344" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2344" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2344" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2344" t="n">
+        <v>318000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2344"/>
+  <dimension ref="A1:I2345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82938,6 +82938,41 @@
         <v>318000</v>
       </c>
     </row>
+    <row r="2345">
+      <c r="A2345" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2345" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2345" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2345" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2345" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2345" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2345" t="n">
+        <v>225100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2345"/>
+  <dimension ref="A1:I2346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82973,6 +82973,41 @@
         <v>225100</v>
       </c>
     </row>
+    <row r="2346">
+      <c r="A2346" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2346" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2346" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2346" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2346" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2346" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2346" t="n">
+        <v>372600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2346"/>
+  <dimension ref="A1:I2347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83008,6 +83008,41 @@
         <v>372600</v>
       </c>
     </row>
+    <row r="2347">
+      <c r="A2347" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2347" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2347" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2347" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2347" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2347" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2347" t="n">
+        <v>37500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2347"/>
+  <dimension ref="A1:I2348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83043,6 +83043,41 @@
         <v>37500</v>
       </c>
     </row>
+    <row r="2348">
+      <c r="A2348" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2348" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2348" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2348" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2348" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2348" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2348" t="n">
+        <v>658000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2348"/>
+  <dimension ref="A1:I2349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83078,6 +83078,41 @@
         <v>658000</v>
       </c>
     </row>
+    <row r="2349">
+      <c r="A2349" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2349" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2349" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2349" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2349" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2349" t="n">
+        <v>150000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2349"/>
+  <dimension ref="A1:I2350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83113,6 +83113,41 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="2350">
+      <c r="A2350" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2350" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2350" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2350" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2350" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2350" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2350" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2350" t="n">
+        <v>343400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2350"/>
+  <dimension ref="A1:I2351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83148,6 +83148,41 @@
         <v>343400</v>
       </c>
     </row>
+    <row r="2351">
+      <c r="A2351" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2351" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2351" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2351" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2351" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2351" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2351" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2351"/>
+  <dimension ref="A1:I2353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83183,6 +83183,76 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="2352">
+      <c r="A2352" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2352" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2352" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2352" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2352" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2352" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2352" t="n">
+        <v>295000</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2353" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2353" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2353" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2353" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2353" t="n">
+        <v>440000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2353"/>
+  <dimension ref="A1:I2354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83253,6 +83253,43 @@
         <v>440000</v>
       </c>
     </row>
+    <row r="2354">
+      <c r="A2354" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2354" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2354" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2354" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2354" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2354" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2354"/>
+  <dimension ref="A1:I2357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83290,6 +83290,111 @@
         </is>
       </c>
     </row>
+    <row r="2355">
+      <c r="A2355" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2355" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2355" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2355" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2355" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2355" t="n">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2356" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2356" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2356" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2356" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2356" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2356" t="n">
+        <v>122000</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2357" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2357" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2357" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2357" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2357" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2357" t="n">
+        <v>455000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2357"/>
+  <dimension ref="A1:I2358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83395,6 +83395,41 @@
         <v>455000</v>
       </c>
     </row>
+    <row r="2358">
+      <c r="A2358" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2358" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2358" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2358" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2358" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2358" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2358" t="n">
+        <v>550100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2358"/>
+  <dimension ref="A1:I2359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83430,6 +83430,41 @@
         <v>550100</v>
       </c>
     </row>
+    <row r="2359">
+      <c r="A2359" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2359" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2359" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2359" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2359" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2359" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2359" t="n">
+        <v>210000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5172.xlsx
+++ b/data/5172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2359"/>
+  <dimension ref="A1:I2362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83465,6 +83465,111 @@
         <v>210000</v>
       </c>
     </row>
+    <row r="2360">
+      <c r="A2360" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2360" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2360" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2360" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2360" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2360" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2360" t="n">
+        <v>335000</v>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2361" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2361" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2361" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2361" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2361" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2361" t="n">
+        <v>167600</v>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>5172</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr">
+        <is>
+          <t>KSTAR</t>
+        </is>
+      </c>
+      <c r="E2362" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2362" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2362" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2362" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2362" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
